--- a/data/pca/factorExposure/factorExposure_2017-02-24.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-02-24.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01699774538025487</v>
+        <v>0.01242839101190666</v>
       </c>
       <c r="C2">
-        <v>0.01763983576995641</v>
+        <v>-0.04141157696322936</v>
       </c>
       <c r="D2">
-        <v>0.02684597747218129</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.03032981659925381</v>
+      </c>
+      <c r="E2">
+        <v>0.04250061448375575</v>
+      </c>
+      <c r="F2">
+        <v>0.006620785484498115</v>
+      </c>
+      <c r="G2">
+        <v>-0.1100898810750759</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.01841867391413035</v>
+        <v>0.03950957261258393</v>
       </c>
       <c r="C3">
-        <v>0.0008960863119808646</v>
+        <v>-0.1015265284939172</v>
       </c>
       <c r="D3">
-        <v>0.08742868863997311</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.01814226145480722</v>
+      </c>
+      <c r="E3">
+        <v>0.1041823752983408</v>
+      </c>
+      <c r="F3">
+        <v>0.01782338133863899</v>
+      </c>
+      <c r="G3">
+        <v>-0.1385251392776974</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.03281315728635957</v>
+        <v>0.05566650716239575</v>
       </c>
       <c r="C4">
-        <v>0.007697722652742045</v>
+        <v>-0.0674293098174278</v>
       </c>
       <c r="D4">
-        <v>0.08797714388726488</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.02522207540979396</v>
+      </c>
+      <c r="E4">
+        <v>0.04076284617735062</v>
+      </c>
+      <c r="F4">
+        <v>-0.002047203994201293</v>
+      </c>
+      <c r="G4">
+        <v>-0.1007120615307454</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,136 +806,226 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.008547242356525658</v>
+        <v>0.03563452628827328</v>
       </c>
       <c r="C6">
-        <v>0.01188133983205861</v>
+        <v>-0.05110015692582517</v>
       </c>
       <c r="D6">
-        <v>0.06547160411597855</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01760236899860244</v>
+      </c>
+      <c r="E6">
+        <v>0.04342060872737923</v>
+      </c>
+      <c r="F6">
+        <v>-0.0004183607525219192</v>
+      </c>
+      <c r="G6">
+        <v>-0.08596093531478106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.002490339058116096</v>
+        <v>0.02088469751604285</v>
       </c>
       <c r="C7">
-        <v>0.01393153454078763</v>
+        <v>-0.03960346152635507</v>
       </c>
       <c r="D7">
-        <v>0.03669116121164065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.01418755919461385</v>
+      </c>
+      <c r="E7">
+        <v>0.00634280674351922</v>
+      </c>
+      <c r="F7">
+        <v>0.004882101598164795</v>
+      </c>
+      <c r="G7">
+        <v>-0.1240771504469736</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.004937587575175808</v>
+        <v>0.003067698788389158</v>
       </c>
       <c r="C8">
-        <v>0.00324206849660068</v>
+        <v>-0.02404565962356688</v>
       </c>
       <c r="D8">
-        <v>-0.01215838795551526</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.004182898460215126</v>
+      </c>
+      <c r="E8">
+        <v>0.03346061003374998</v>
+      </c>
+      <c r="F8">
+        <v>0.0006338749662801363</v>
+      </c>
+      <c r="G8">
+        <v>-0.07069065047607435</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.01138799631734023</v>
+        <v>0.03313979516230544</v>
       </c>
       <c r="C9">
-        <v>0.009412678254882513</v>
+        <v>-0.04883857637355971</v>
       </c>
       <c r="D9">
-        <v>0.05450822361214881</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.01670045105053813</v>
+      </c>
+      <c r="E9">
+        <v>0.02698982783406976</v>
+      </c>
+      <c r="F9">
+        <v>-0.00164320783861013</v>
+      </c>
+      <c r="G9">
+        <v>-0.1041173524208886</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.145192060281036</v>
+        <v>0.09724827593855064</v>
       </c>
       <c r="C10">
-        <v>-0.08059524811503703</v>
+        <v>0.1827882224415948</v>
       </c>
       <c r="D10">
-        <v>-0.125791189276798</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01582062692277379</v>
+      </c>
+      <c r="E10">
+        <v>0.01925978430654674</v>
+      </c>
+      <c r="F10">
+        <v>0.02535908207506232</v>
+      </c>
+      <c r="G10">
+        <v>-0.05404391510948764</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.00453942447825809</v>
+        <v>0.03554003176610759</v>
       </c>
       <c r="C11">
-        <v>-0.001703198605214688</v>
+        <v>-0.05188085624718975</v>
       </c>
       <c r="D11">
-        <v>0.04854172934077025</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.002709037027920062</v>
+      </c>
+      <c r="E11">
+        <v>0.02227491252562945</v>
+      </c>
+      <c r="F11">
+        <v>-0.01465836657419745</v>
+      </c>
+      <c r="G11">
+        <v>-0.0906436600041262</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.007294005081776763</v>
+        <v>0.03769436589981444</v>
       </c>
       <c r="C12">
-        <v>0.002413944825947669</v>
+        <v>-0.04650504549975342</v>
       </c>
       <c r="D12">
-        <v>0.0415146058558974</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.00666953839257067</v>
+      </c>
+      <c r="E12">
+        <v>0.0101640814030728</v>
+      </c>
+      <c r="F12">
+        <v>0.001112924313168592</v>
+      </c>
+      <c r="G12">
+        <v>-0.08249596367378868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01206966582658241</v>
+        <v>0.01462574880677953</v>
       </c>
       <c r="C13">
-        <v>0.01766107629660462</v>
+        <v>-0.0419108869729686</v>
       </c>
       <c r="D13">
-        <v>0.02969560927335072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.02717296948158441</v>
+      </c>
+      <c r="E13">
+        <v>0.04211789807085527</v>
+      </c>
+      <c r="F13">
+        <v>0.008036826040921697</v>
+      </c>
+      <c r="G13">
+        <v>-0.1421548103415698</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.001535682294958346</v>
+        <v>0.00939626652046043</v>
       </c>
       <c r="C14">
-        <v>0.006894350337979565</v>
+        <v>-0.02892971213611045</v>
       </c>
       <c r="D14">
-        <v>0.01807497031693564</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.0105154461359333</v>
+      </c>
+      <c r="E14">
+        <v>0.009087506983042887</v>
+      </c>
+      <c r="F14">
+        <v>0.01064101343863044</v>
+      </c>
+      <c r="G14">
+        <v>-0.1105926684773525</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -901,24 +1036,42 @@
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.006755670421765322</v>
+        <v>0.03424579272768478</v>
       </c>
       <c r="C16">
-        <v>-0.002884762997511598</v>
+        <v>-0.04535062137182183</v>
       </c>
       <c r="D16">
-        <v>0.03711909001654123</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.002280091872074627</v>
+      </c>
+      <c r="E16">
+        <v>0.01847411436951034</v>
+      </c>
+      <c r="F16">
+        <v>0.004190943542030706</v>
+      </c>
+      <c r="G16">
+        <v>-0.09343727928446834</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.009633013149259788</v>
+        <v>0.02105462551645785</v>
       </c>
       <c r="C19">
-        <v>0.009418962071026467</v>
+        <v>-0.0519673762855714</v>
       </c>
       <c r="D19">
-        <v>0.04179011281199703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.02032382542741228</v>
+      </c>
+      <c r="E19">
+        <v>0.08962510968992757</v>
+      </c>
+      <c r="F19">
+        <v>-0.0007664412029663314</v>
+      </c>
+      <c r="G19">
+        <v>-0.1394959783075963</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.002005548218293505</v>
+        <v>0.01619900907516161</v>
       </c>
       <c r="C20">
-        <v>0.01083683093611499</v>
+        <v>-0.04130589078960271</v>
       </c>
       <c r="D20">
-        <v>0.03288332534748909</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.01468674418773268</v>
+      </c>
+      <c r="E20">
+        <v>0.03936067063764513</v>
+      </c>
+      <c r="F20">
+        <v>0.02115479649619322</v>
+      </c>
+      <c r="G20">
+        <v>-0.1141656759411407</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.000739690956434932</v>
+        <v>0.01139507090359936</v>
       </c>
       <c r="C21">
-        <v>0.01479596279049393</v>
+        <v>-0.03870683608590107</v>
       </c>
       <c r="D21">
-        <v>0.006337838518418262</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.0196634593842056</v>
+      </c>
+      <c r="E21">
+        <v>0.04914901921532894</v>
+      </c>
+      <c r="F21">
+        <v>0.01296269221102234</v>
+      </c>
+      <c r="G21">
+        <v>-0.1425476048603611</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>-0.001450769601746825</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-0.007051104436270851</v>
       </c>
       <c r="D22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.002168062885857818</v>
+      </c>
+      <c r="E22">
+        <v>0.01649342854455138</v>
+      </c>
+      <c r="F22">
+        <v>-0.008888040621158343</v>
+      </c>
+      <c r="G22">
+        <v>-0.000900578651534552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>-0.001459520984723682</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-0.007057844113410018</v>
       </c>
       <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.002165795137644155</v>
+      </c>
+      <c r="E23">
+        <v>0.01646665499433482</v>
+      </c>
+      <c r="F23">
+        <v>-0.008879541846317262</v>
+      </c>
+      <c r="G23">
+        <v>-0.0007909644138454428</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.0003891439809746538</v>
+        <v>0.02942135564261231</v>
       </c>
       <c r="C24">
-        <v>0.005499402675067341</v>
+        <v>-0.04854981780257654</v>
       </c>
       <c r="D24">
-        <v>0.03946486915630297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.007449193453725445</v>
+      </c>
+      <c r="E24">
+        <v>0.01703107134490098</v>
+      </c>
+      <c r="F24">
+        <v>-0.006061278726225382</v>
+      </c>
+      <c r="G24">
+        <v>-0.09294891642017139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.01629422871072457</v>
+        <v>0.04262174962225022</v>
       </c>
       <c r="C25">
-        <v>0.003004674309274419</v>
+        <v>-0.05654308257933788</v>
       </c>
       <c r="D25">
-        <v>0.05394734991542955</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.01147117741725865</v>
+      </c>
+      <c r="E25">
+        <v>0.00622027105615325</v>
+      </c>
+      <c r="F25">
+        <v>-0.002906396331743501</v>
+      </c>
+      <c r="G25">
+        <v>-0.09745410721978125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.007186122122354531</v>
+        <v>0.01452545761100372</v>
       </c>
       <c r="C26">
-        <v>0.02097313695228346</v>
+        <v>-0.01163202865368611</v>
       </c>
       <c r="D26">
-        <v>-0.001412882268551238</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.02431792320294594</v>
+      </c>
+      <c r="E26">
+        <v>0.009200086739451193</v>
+      </c>
+      <c r="F26">
+        <v>0.008064789851684077</v>
+      </c>
+      <c r="G26">
+        <v>-0.08553884593195193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,108 +1312,180 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1945645690452701</v>
+        <v>0.1251311578243466</v>
       </c>
       <c r="C28">
-        <v>-0.09135553438553176</v>
+        <v>0.2413416411103676</v>
       </c>
       <c r="D28">
-        <v>-0.1518734756032305</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.007053109206173691</v>
+      </c>
+      <c r="E28">
+        <v>0.005766984178645547</v>
+      </c>
+      <c r="F28">
+        <v>0.02131897017441229</v>
+      </c>
+      <c r="G28">
+        <v>-0.04558727450048147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.006322261192883002</v>
+        <v>0.009416121630373963</v>
       </c>
       <c r="C29">
-        <v>0.004049217232792812</v>
+        <v>-0.02375260139398603</v>
       </c>
       <c r="D29">
-        <v>0.01681330668776101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.009509102577215205</v>
+      </c>
+      <c r="E29">
+        <v>0.003535145697703588</v>
+      </c>
+      <c r="F29">
+        <v>0.01633967707500929</v>
+      </c>
+      <c r="G29">
+        <v>-0.1016645893039651</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.01455501970600714</v>
+        <v>0.0406840552638425</v>
       </c>
       <c r="C30">
-        <v>0.01859234833167177</v>
+        <v>-0.06802456256020037</v>
       </c>
       <c r="D30">
-        <v>0.09650425574354654</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.02973234876125343</v>
+      </c>
+      <c r="E30">
+        <v>0.07159256946813128</v>
+      </c>
+      <c r="F30">
+        <v>-0.02852512644525292</v>
+      </c>
+      <c r="G30">
+        <v>-0.1380432788204796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.02244854944620954</v>
+        <v>0.05392236217319064</v>
       </c>
       <c r="C31">
-        <v>-0.0064111879629782</v>
+        <v>-0.03965377998170581</v>
       </c>
       <c r="D31">
-        <v>0.02759511004605244</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.004002093955132156</v>
+      </c>
+      <c r="E31">
+        <v>-0.002547450363339816</v>
+      </c>
+      <c r="F31">
+        <v>0.0377344291064854</v>
+      </c>
+      <c r="G31">
+        <v>-0.0957044991999715</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.00809303015628463</v>
+        <v>0.001928275403214963</v>
       </c>
       <c r="C32">
-        <v>-0.004892419709342321</v>
+        <v>-0.02237283224108286</v>
       </c>
       <c r="D32">
-        <v>0.001693256353320224</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.002424997164920976</v>
+      </c>
+      <c r="E32">
+        <v>0.04300353884076481</v>
+      </c>
+      <c r="F32">
+        <v>-0.02826154806504121</v>
+      </c>
+      <c r="G32">
+        <v>-0.08516775825850782</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.007369183392467124</v>
+        <v>0.02812112664316382</v>
       </c>
       <c r="C33">
-        <v>0.008463828237663562</v>
+        <v>-0.05098769514842071</v>
       </c>
       <c r="D33">
-        <v>0.03939393485402044</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.01670034639110166</v>
+      </c>
+      <c r="E33">
+        <v>0.05145419704401021</v>
+      </c>
+      <c r="F33">
+        <v>-0.007039555091875043</v>
+      </c>
+      <c r="G33">
+        <v>-0.1626226123569152</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.01632469247277223</v>
+        <v>0.04109322613892775</v>
       </c>
       <c r="C34">
-        <v>-0.0149843680053581</v>
+        <v>-0.0583372176242577</v>
       </c>
       <c r="D34">
-        <v>0.05537637233478604</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.004135395362228447</v>
+      </c>
+      <c r="E34">
+        <v>0.01349233613586814</v>
+      </c>
+      <c r="F34">
+        <v>-0.01804150270573773</v>
+      </c>
+      <c r="G34">
+        <v>-0.09386357155704497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1181,24 +1496,42 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.009432234287807924</v>
+        <v>0.01591522466776479</v>
       </c>
       <c r="C36">
-        <v>0.007112780288253508</v>
+        <v>-0.01065676455519823</v>
       </c>
       <c r="D36">
-        <v>0.001312417313046547</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01301785181156155</v>
+      </c>
+      <c r="E36">
+        <v>0.01085964336710007</v>
+      </c>
+      <c r="F36">
+        <v>0.009187076954667717</v>
+      </c>
+      <c r="G36">
+        <v>-0.09322853475307938</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,108 +1542,180 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.02024763245967977</v>
+        <v>0.03160400604143858</v>
       </c>
       <c r="C38">
-        <v>-0.01918223592076809</v>
+        <v>-0.0301175076482771</v>
       </c>
       <c r="D38">
-        <v>0.03638619339876429</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.007435545548837745</v>
+      </c>
+      <c r="E38">
+        <v>0.005619256102150459</v>
+      </c>
+      <c r="F38">
+        <v>0.0187418819230565</v>
+      </c>
+      <c r="G38">
+        <v>-0.08321971142969815</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.01100489394509739</v>
+        <v>0.03757282195892873</v>
       </c>
       <c r="C39">
-        <v>0.0147509430388162</v>
+        <v>-0.07852397417761821</v>
       </c>
       <c r="D39">
-        <v>0.09429226090583422</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.01211218516304601</v>
+      </c>
+      <c r="E39">
+        <v>0.03371994093133156</v>
+      </c>
+      <c r="F39">
+        <v>-0.01742118118398022</v>
+      </c>
+      <c r="G39">
+        <v>-0.09494459519907093</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01337878980695926</v>
+        <v>0.01456518828752749</v>
       </c>
       <c r="C40">
-        <v>0.004545077536069465</v>
+        <v>-0.03849254837612447</v>
       </c>
       <c r="D40">
-        <v>0.02205490739535056</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.01507716493279847</v>
+      </c>
+      <c r="E40">
+        <v>0.03442360004790614</v>
+      </c>
+      <c r="F40">
+        <v>0.01341913400682686</v>
+      </c>
+      <c r="G40">
+        <v>-0.122967977894877</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.01263616333362735</v>
+        <v>0.0199879279962991</v>
       </c>
       <c r="C41">
-        <v>-0.002793504386888911</v>
+        <v>-0.003799795678097039</v>
       </c>
       <c r="D41">
-        <v>-0.01107144491163212</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.004956804699641441</v>
+      </c>
+      <c r="E41">
+        <v>0.008998738612000949</v>
+      </c>
+      <c r="F41">
+        <v>0.01610990173457932</v>
+      </c>
+      <c r="G41">
+        <v>-0.08747590740716386</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>-0.03243591897896608</v>
+        <v>0.00765435660154956</v>
       </c>
       <c r="C42">
-        <v>0.08503106191829064</v>
+        <v>-0.02504203302914377</v>
       </c>
       <c r="D42">
-        <v>0.08932857246100152</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>-0.08674234469075683</v>
+      </c>
+      <c r="E42">
+        <v>-0.000465556529370334</v>
+      </c>
+      <c r="F42">
+        <v>0.03638565573804393</v>
+      </c>
+      <c r="G42">
+        <v>0.01595457372571344</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.01338403044806313</v>
+        <v>0.03536164187614348</v>
       </c>
       <c r="C43">
-        <v>-0.002338125895645548</v>
+        <v>-0.0193217747862897</v>
       </c>
       <c r="D43">
-        <v>-0.009185980089400024</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.006281631847271277</v>
+      </c>
+      <c r="E43">
+        <v>0.02204547198942589</v>
+      </c>
+      <c r="F43">
+        <v>0.01163881866243465</v>
+      </c>
+      <c r="G43">
+        <v>-0.1177646861446953</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002124031096581475</v>
+        <v>0.01353760380005484</v>
       </c>
       <c r="C44">
-        <v>0.003997903688976187</v>
+        <v>-0.05871013260149236</v>
       </c>
       <c r="D44">
-        <v>0.04559566270319521</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.007258750695584167</v>
+      </c>
+      <c r="E44">
+        <v>0.02848220933543189</v>
+      </c>
+      <c r="F44">
+        <v>0.01558969029596119</v>
+      </c>
+      <c r="G44">
+        <v>-0.1096609719848236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.003593305190848135</v>
+        <v>0.009297038589697429</v>
       </c>
       <c r="C46">
-        <v>0.009011530571111594</v>
+        <v>-0.01556665972423116</v>
       </c>
       <c r="D46">
-        <v>-0.00559729194535941</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01256390089018582</v>
+      </c>
+      <c r="E46">
+        <v>-0.003060572222464891</v>
+      </c>
+      <c r="F46">
+        <v>0.02023719471001757</v>
+      </c>
+      <c r="G46">
+        <v>-0.1075176567627407</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.02829543732237956</v>
+        <v>0.0796568756332578</v>
       </c>
       <c r="C47">
-        <v>-0.01713855026990196</v>
+        <v>-0.06925163523602344</v>
       </c>
       <c r="D47">
-        <v>0.07311708988455078</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.005036268476122977</v>
+      </c>
+      <c r="E47">
+        <v>-0.01328970036073765</v>
+      </c>
+      <c r="F47">
+        <v>0.05214575630475269</v>
+      </c>
+      <c r="G47">
+        <v>-0.08195671488505497</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.006130759747403816</v>
+        <v>0.01885628990945073</v>
       </c>
       <c r="C48">
-        <v>-0.001798251440854006</v>
+        <v>-0.01347879037011549</v>
       </c>
       <c r="D48">
-        <v>0.01231358564014919</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.002688973384516192</v>
+      </c>
+      <c r="E48">
+        <v>0.006116069025692239</v>
+      </c>
+      <c r="F48">
+        <v>0.0202155712049164</v>
+      </c>
+      <c r="G48">
+        <v>-0.1016402168987471</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.04042024346999479</v>
+        <v>0.07599531023711892</v>
       </c>
       <c r="C50">
-        <v>-0.02180195031810313</v>
+        <v>-0.07185337364244798</v>
       </c>
       <c r="D50">
-        <v>0.06444107886623454</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.00200277065847304</v>
+      </c>
+      <c r="E50">
+        <v>-0.009636490363705329</v>
+      </c>
+      <c r="F50">
+        <v>0.05106923696195585</v>
+      </c>
+      <c r="G50">
+        <v>-0.09316819048932096</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.006054106136417565</v>
+        <v>0.0131134117651539</v>
       </c>
       <c r="C51">
-        <v>0.003391124861590801</v>
+        <v>-0.0379622171838619</v>
       </c>
       <c r="D51">
-        <v>0.02386589322895834</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.01107195662550479</v>
+      </c>
+      <c r="E51">
+        <v>0.03010210482319428</v>
+      </c>
+      <c r="F51">
+        <v>-0.01285331040762336</v>
+      </c>
+      <c r="G51">
+        <v>-0.1229380984184908</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,136 +1887,226 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.04497106334128916</v>
+        <v>0.08216761001805327</v>
       </c>
       <c r="C53">
-        <v>-0.02391146971368188</v>
+        <v>-0.08382014307957375</v>
       </c>
       <c r="D53">
-        <v>0.1113480633919839</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.003349312187330389</v>
+      </c>
+      <c r="E53">
+        <v>-0.03084934727625479</v>
+      </c>
+      <c r="F53">
+        <v>0.05918018715275564</v>
+      </c>
+      <c r="G53">
+        <v>-0.08783717424141115</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.01526722764649062</v>
+        <v>0.03246406326891309</v>
       </c>
       <c r="C54">
-        <v>-0.01114497257375516</v>
+        <v>-0.01928471687967025</v>
       </c>
       <c r="D54">
-        <v>-0.002520268597037706</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.0009129165077236954</v>
+      </c>
+      <c r="E54">
+        <v>0.01854279652841003</v>
+      </c>
+      <c r="F54">
+        <v>0.009973592302079365</v>
+      </c>
+      <c r="G54">
+        <v>-0.1103979176072775</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.02922565806883411</v>
+        <v>0.07479083169943754</v>
       </c>
       <c r="C55">
-        <v>-0.01713178984215512</v>
+        <v>-0.06679360765425287</v>
       </c>
       <c r="D55">
-        <v>0.09232942721135312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.005114642608630849</v>
+      </c>
+      <c r="E55">
+        <v>-0.0304945715201061</v>
+      </c>
+      <c r="F55">
+        <v>0.05669461959288605</v>
+      </c>
+      <c r="G55">
+        <v>-0.06640378566411832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.06615963903364526</v>
+        <v>0.1373982520634703</v>
       </c>
       <c r="C56">
-        <v>-0.04060195444422472</v>
+        <v>-0.1054421872135885</v>
       </c>
       <c r="D56">
-        <v>0.1534749504519133</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01315629083378092</v>
+      </c>
+      <c r="E56">
+        <v>-0.04137558762931787</v>
+      </c>
+      <c r="F56">
+        <v>0.07242848299442303</v>
+      </c>
+      <c r="G56">
+        <v>-0.03583401762895858</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>-0.01588524292191677</v>
+        <v>0.00490130210920159</v>
       </c>
       <c r="C57">
-        <v>0.01660225073015231</v>
+        <v>-0.006081608195684203</v>
       </c>
       <c r="D57">
-        <v>0.02613018853035434</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>-0.02269923671893638</v>
+      </c>
+      <c r="E57">
+        <v>0.02485119616562926</v>
+      </c>
+      <c r="F57">
+        <v>-0.001493649965900154</v>
+      </c>
+      <c r="G57">
+        <v>-0.02148409883682304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.002781964297563989</v>
+        <v>0.04775899658948291</v>
       </c>
       <c r="C58">
-        <v>0.0008952718944526246</v>
+        <v>-0.0436941637762982</v>
       </c>
       <c r="D58">
-        <v>0.1784773122593458</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.02304479999391638</v>
+      </c>
+      <c r="E58">
+        <v>0.8463344845118451</v>
+      </c>
+      <c r="F58">
+        <v>0.4204164300318181</v>
+      </c>
+      <c r="G58">
+        <v>0.2516083964352175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.2217711631472005</v>
+        <v>0.1574330217526691</v>
       </c>
       <c r="C59">
-        <v>-0.1109686816530752</v>
+        <v>0.2085937132791684</v>
       </c>
       <c r="D59">
-        <v>-0.1306529635585193</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.01168776468444846</v>
+      </c>
+      <c r="E59">
+        <v>0.02470218899285899</v>
+      </c>
+      <c r="F59">
+        <v>0.007282739379596242</v>
+      </c>
+      <c r="G59">
+        <v>-0.03713723470803369</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2132447729253826</v>
+        <v>0.2887285661621967</v>
       </c>
       <c r="C60">
-        <v>-0.08916314573331061</v>
+        <v>-0.1116363127728602</v>
       </c>
       <c r="D60">
-        <v>0.1771327625691204</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.01335966654854167</v>
+      </c>
+      <c r="E60">
+        <v>0.06720105336135039</v>
+      </c>
+      <c r="F60">
+        <v>-0.3423249591630659</v>
+      </c>
+      <c r="G60">
+        <v>0.1653309257186667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.0002936246774614297</v>
+        <v>0.03902991967152205</v>
       </c>
       <c r="C61">
-        <v>0.00339274759586969</v>
+        <v>-0.06463186097784528</v>
       </c>
       <c r="D61">
-        <v>0.07327698230727528</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.006203614227695936</v>
+      </c>
+      <c r="E61">
+        <v>0.02945579574237574</v>
+      </c>
+      <c r="F61">
+        <v>-0.01050107461735629</v>
+      </c>
+      <c r="G61">
+        <v>-0.1008295899974462</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.006774398936292525</v>
+        <v>0.01499342475533855</v>
       </c>
       <c r="C63">
-        <v>0.004553664537284653</v>
+        <v>-0.03048455597321233</v>
       </c>
       <c r="D63">
-        <v>0.02431133807823665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.008940448677395293</v>
+      </c>
+      <c r="E63">
+        <v>0.005915260541682336</v>
+      </c>
+      <c r="F63">
+        <v>0.01473562642543689</v>
+      </c>
+      <c r="G63">
+        <v>-0.09398266526213998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.0291289838547787</v>
+        <v>0.05031275250245397</v>
       </c>
       <c r="C64">
-        <v>-0.00953940034575621</v>
+        <v>-0.04531250047328791</v>
       </c>
       <c r="D64">
-        <v>0.05110548702179354</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.006423132868407604</v>
+      </c>
+      <c r="E64">
+        <v>0.005441499409740533</v>
+      </c>
+      <c r="F64">
+        <v>-0.003877184058905792</v>
+      </c>
+      <c r="G64">
+        <v>-0.1051000449275221</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.0346830217906751</v>
+        <v>0.0746983631344148</v>
       </c>
       <c r="C65">
-        <v>0.0003808202562652986</v>
+        <v>-0.05918081864851292</v>
       </c>
       <c r="D65">
-        <v>0.1070035916144256</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.01728146360018799</v>
+      </c>
+      <c r="E65">
+        <v>0.04902109585155644</v>
+      </c>
+      <c r="F65">
+        <v>-0.01956671144056452</v>
+      </c>
+      <c r="G65">
+        <v>-0.04359819918674808</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.008677447447727558</v>
+        <v>0.05002240538615307</v>
       </c>
       <c r="C66">
-        <v>0.01284299468919843</v>
+        <v>-0.1052034681622087</v>
       </c>
       <c r="D66">
-        <v>0.1349360578050007</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.01247790849027863</v>
+      </c>
+      <c r="E66">
+        <v>0.05081553718941064</v>
+      </c>
+      <c r="F66">
+        <v>-0.02587090120279776</v>
+      </c>
+      <c r="G66">
+        <v>-0.1059499708275384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.04373464622948078</v>
+        <v>0.0551683566223399</v>
       </c>
       <c r="C67">
-        <v>-0.02740607891152035</v>
+        <v>-0.03478616928084666</v>
       </c>
       <c r="D67">
-        <v>0.05825164856349647</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.006050350935728933</v>
+      </c>
+      <c r="E67">
+        <v>-0.005855584345679348</v>
+      </c>
+      <c r="F67">
+        <v>0.01586321733774835</v>
+      </c>
+      <c r="G67">
+        <v>-0.07004444663676983</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.2262858245029708</v>
+        <v>0.1552103251207828</v>
       </c>
       <c r="C68">
-        <v>-0.09148294888800025</v>
+        <v>0.2724814984155929</v>
       </c>
       <c r="D68">
-        <v>-0.1912621401012547</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.00471369534427178</v>
+      </c>
+      <c r="E68">
+        <v>0.003730775906250633</v>
+      </c>
+      <c r="F68">
+        <v>0.04670073244324609</v>
+      </c>
+      <c r="G68">
+        <v>-0.02193290940976744</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.03538684308375835</v>
+        <v>0.08253443227283008</v>
       </c>
       <c r="C69">
-        <v>-0.02506196664484572</v>
+        <v>-0.07366246037438356</v>
       </c>
       <c r="D69">
-        <v>0.0764387405189316</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.008825902747692082</v>
+      </c>
+      <c r="E69">
+        <v>-0.02616936447630408</v>
+      </c>
+      <c r="F69">
+        <v>0.03321217456699591</v>
+      </c>
+      <c r="G69">
+        <v>-0.09692089390363953</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,192 +2301,318 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1914598570415024</v>
+        <v>0.1410261704537068</v>
       </c>
       <c r="C71">
-        <v>-0.08528906142218003</v>
+        <v>0.2299150641124232</v>
       </c>
       <c r="D71">
-        <v>-0.1284279449679683</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.003098657489991478</v>
+      </c>
+      <c r="E71">
+        <v>0.03133620773883861</v>
+      </c>
+      <c r="F71">
+        <v>0.03168502222258678</v>
+      </c>
+      <c r="G71">
+        <v>-0.06825194246054667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.028306548862287</v>
+        <v>0.08756346706079461</v>
       </c>
       <c r="C72">
-        <v>-0.02278186531407878</v>
+        <v>-0.06914484061196753</v>
       </c>
       <c r="D72">
-        <v>0.09252406086720337</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.008303935359238131</v>
+      </c>
+      <c r="E72">
+        <v>-0.007415208686346138</v>
+      </c>
+      <c r="F72">
+        <v>-0.03475006363447907</v>
+      </c>
+      <c r="G72">
+        <v>-0.0935387753802078</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.2832880808448708</v>
+        <v>0.3754513884423466</v>
       </c>
       <c r="C73">
-        <v>-0.1164443712088941</v>
+        <v>-0.11375955476393</v>
       </c>
       <c r="D73">
-        <v>0.2601796812121004</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.0229449129163095</v>
+      </c>
+      <c r="E73">
+        <v>0.1753355647333047</v>
+      </c>
+      <c r="F73">
+        <v>-0.5648142210909719</v>
+      </c>
+      <c r="G73">
+        <v>0.2913659258590157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.05925272909885906</v>
+        <v>0.1058778701072841</v>
       </c>
       <c r="C74">
-        <v>-0.03795104783718269</v>
+        <v>-0.1090917157135237</v>
       </c>
       <c r="D74">
-        <v>0.1620037298825858</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.009475359439841654</v>
+      </c>
+      <c r="E74">
+        <v>-0.0159283779267805</v>
+      </c>
+      <c r="F74">
+        <v>0.06633648088163809</v>
+      </c>
+      <c r="G74">
+        <v>-0.07188961006530729</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.1450326558737149</v>
+        <v>0.2499008688182118</v>
       </c>
       <c r="C75">
-        <v>-0.08712918726346361</v>
+        <v>-0.1487510158727697</v>
       </c>
       <c r="D75">
-        <v>0.2813612287191211</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.03150221985833635</v>
+      </c>
+      <c r="E75">
+        <v>-0.09086135805513147</v>
+      </c>
+      <c r="F75">
+        <v>0.1559743730160066</v>
+      </c>
+      <c r="G75">
+        <v>0.02599132638027441</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.06119292976558833</v>
+        <v>0.1184688680842413</v>
       </c>
       <c r="C76">
-        <v>-0.04430557964140575</v>
+        <v>-0.1098602901565153</v>
       </c>
       <c r="D76">
-        <v>0.1835983797129004</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.01762618954219401</v>
+      </c>
+      <c r="E76">
+        <v>-0.0393392480030576</v>
+      </c>
+      <c r="F76">
+        <v>0.09233073394502046</v>
+      </c>
+      <c r="G76">
+        <v>-0.05321302396055073</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.02128889914476487</v>
+        <v>0.07045891794190155</v>
       </c>
       <c r="C77">
-        <v>-0.00130194264215968</v>
+        <v>-0.05754184753321044</v>
       </c>
       <c r="D77">
-        <v>0.08220567862955454</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.01026351078252961</v>
+      </c>
+      <c r="E77">
+        <v>0.0535154019890527</v>
+      </c>
+      <c r="F77">
+        <v>0.0004395337483497912</v>
+      </c>
+      <c r="G77">
+        <v>-0.07011701184298964</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.01536350981076192</v>
+        <v>0.04344740905405284</v>
       </c>
       <c r="C78">
-        <v>-0.003924476933903106</v>
+        <v>-0.05030713981803761</v>
       </c>
       <c r="D78">
-        <v>0.06831278031404836</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.006488059642876338</v>
+      </c>
+      <c r="E78">
+        <v>0.03808298436443357</v>
+      </c>
+      <c r="F78">
+        <v>-0.02986551151130289</v>
+      </c>
+      <c r="G78">
+        <v>-0.1057557369063213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0</v>
+        <v>-0.0009459440731764084</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>8.04563242907093e-06</v>
       </c>
       <c r="D79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.00034378258140332</v>
+      </c>
+      <c r="E79">
+        <v>0.004038747103036601</v>
+      </c>
+      <c r="F79">
+        <v>-0.0007762629267614773</v>
+      </c>
+      <c r="G79">
+        <v>-0.002679469385554719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.04064358025140276</v>
+        <v>0.04306684394409249</v>
       </c>
       <c r="C80">
-        <v>-0.008544957671511156</v>
+        <v>-0.04961002603772754</v>
       </c>
       <c r="D80">
-        <v>0.08097518560607266</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01346885731851701</v>
+      </c>
+      <c r="E80">
+        <v>0.02893998656430522</v>
+      </c>
+      <c r="F80">
+        <v>-0.002909817371686479</v>
+      </c>
+      <c r="G80">
+        <v>-0.05254556454374217</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.07116172628188948</v>
+        <v>0.1388249684471092</v>
       </c>
       <c r="C81">
-        <v>-0.04276786917299354</v>
+        <v>-0.09679862827608474</v>
       </c>
       <c r="D81">
-        <v>0.1590944367517175</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.01518184467682607</v>
+      </c>
+      <c r="E81">
+        <v>-0.05448942278361731</v>
+      </c>
+      <c r="F81">
+        <v>0.1214918476274132</v>
+      </c>
+      <c r="G81">
+        <v>-0.02009832345428437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.005197931965321859</v>
+        <v>0.1457841963200662</v>
       </c>
       <c r="C82">
-        <v>-0.002604137655447439</v>
+        <v>-0.08268624985714153</v>
       </c>
       <c r="D82">
-        <v>0.007095449750433827</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.01147396997229</v>
+      </c>
+      <c r="E82">
+        <v>-0.1244943470738312</v>
+      </c>
+      <c r="F82">
+        <v>0.04559167263127051</v>
+      </c>
+      <c r="G82">
+        <v>-0.05934941026632442</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.01510824726352322</v>
+        <v>0.03469465993792729</v>
       </c>
       <c r="C83">
-        <v>-0.003324508885202921</v>
+        <v>-0.03152616730455879</v>
       </c>
       <c r="D83">
-        <v>0.01941713607345489</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.006486509417830582</v>
+      </c>
+      <c r="E83">
+        <v>0.03284507807257962</v>
+      </c>
+      <c r="F83">
+        <v>-0.02569755102773908</v>
+      </c>
+      <c r="G83">
+        <v>-0.06356635844426317</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -1867,164 +2623,272 @@
       <c r="D84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1352704087986576</v>
+        <v>0.2099730011439656</v>
       </c>
       <c r="C85">
-        <v>-0.06921353484820524</v>
+        <v>-0.1444067910243995</v>
       </c>
       <c r="D85">
-        <v>0.2660306097733703</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.01725718493661419</v>
+      </c>
+      <c r="E85">
+        <v>-0.1156150797453484</v>
+      </c>
+      <c r="F85">
+        <v>0.09257841938454774</v>
+      </c>
+      <c r="G85">
+        <v>0.06529895609128943</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01360684854536943</v>
+        <v>0.01409277649967443</v>
       </c>
       <c r="C86">
-        <v>-0.001396281953391852</v>
+        <v>-0.02827817857599267</v>
       </c>
       <c r="D86">
-        <v>0.04117467569205655</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.01165688028741494</v>
+      </c>
+      <c r="E86">
+        <v>0.05441677576778739</v>
+      </c>
+      <c r="F86">
+        <v>-0.005235321730225074</v>
+      </c>
+      <c r="G86">
+        <v>-0.1863425872228223</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.008305227728605945</v>
+        <v>0.02207044333891588</v>
       </c>
       <c r="C87">
-        <v>0.01301728456319352</v>
+        <v>-0.01802822078872624</v>
       </c>
       <c r="D87">
-        <v>0.02859529271799312</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.01236553358395186</v>
+      </c>
+      <c r="E87">
+        <v>0.09911675971698769</v>
+      </c>
+      <c r="F87">
+        <v>0.01474342546653177</v>
+      </c>
+      <c r="G87">
+        <v>-0.1250212199811472</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.04501969389115697</v>
+        <v>0.09336596546188697</v>
       </c>
       <c r="C88">
-        <v>0.002880667531666093</v>
+        <v>-0.06933181647977288</v>
       </c>
       <c r="D88">
-        <v>0.04289292245552086</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02221977113836811</v>
+      </c>
+      <c r="E88">
+        <v>-0.004757385418160384</v>
+      </c>
+      <c r="F88">
+        <v>0.01991370289880061</v>
+      </c>
+      <c r="G88">
+        <v>-0.1014797196193359</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.3368833988697957</v>
+        <v>0.229523344549918</v>
       </c>
       <c r="C89">
-        <v>-0.1462121565388037</v>
+        <v>0.3671988206422139</v>
       </c>
       <c r="D89">
-        <v>-0.2429424809441325</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.0002320327689841507</v>
+      </c>
+      <c r="E89">
+        <v>-0.02295323218004867</v>
+      </c>
+      <c r="F89">
+        <v>0.02042932136037579</v>
+      </c>
+      <c r="G89">
+        <v>-0.07794924456797521</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.2853705967179933</v>
+        <v>0.2073241425877989</v>
       </c>
       <c r="C90">
-        <v>-0.1273261071353722</v>
+        <v>0.3178164261901838</v>
       </c>
       <c r="D90">
-        <v>-0.2121035607057096</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.005045693745256866</v>
+      </c>
+      <c r="E90">
+        <v>-0.003827443280662836</v>
+      </c>
+      <c r="F90">
+        <v>0.04817772445525181</v>
+      </c>
+      <c r="G90">
+        <v>-0.04432067147479218</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1131880664736218</v>
+        <v>0.1858824646305152</v>
       </c>
       <c r="C91">
-        <v>-0.07078190582324163</v>
+        <v>-0.1377348521342893</v>
       </c>
       <c r="D91">
-        <v>0.2024859829432671</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.02249531672880244</v>
+      </c>
+      <c r="E91">
+        <v>-0.0857170009076685</v>
+      </c>
+      <c r="F91">
+        <v>0.1259461653525164</v>
+      </c>
+      <c r="G91">
+        <v>-0.02402664682559948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.255640631933943</v>
+        <v>0.1976246968927439</v>
       </c>
       <c r="C92">
-        <v>-0.1506466255699732</v>
+        <v>0.2589658861595034</v>
       </c>
       <c r="D92">
-        <v>-0.116478921188864</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.03898708474017076</v>
+      </c>
+      <c r="E92">
+        <v>0.02566829135863308</v>
+      </c>
+      <c r="F92">
+        <v>0.0658896167211024</v>
+      </c>
+      <c r="G92">
+        <v>-0.1081274832546944</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.3087924928151858</v>
+        <v>0.2321911946992236</v>
       </c>
       <c r="C93">
-        <v>-0.14562915964085</v>
+        <v>0.3152316552057765</v>
       </c>
       <c r="D93">
-        <v>-0.17113781664167</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01191538837196718</v>
+      </c>
+      <c r="E93">
+        <v>0.003031546081689716</v>
+      </c>
+      <c r="F93">
+        <v>0.04209564953211333</v>
+      </c>
+      <c r="G93">
+        <v>-0.05966893948284511</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.1511227121873996</v>
+        <v>0.3195934148885139</v>
       </c>
       <c r="C94">
-        <v>-0.06739404702283407</v>
+        <v>-0.1857050732050844</v>
       </c>
       <c r="D94">
-        <v>0.281665689395159</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.02046989162997762</v>
+      </c>
+      <c r="E94">
+        <v>-0.2982750673255521</v>
+      </c>
+      <c r="F94">
+        <v>0.4313230419218953</v>
+      </c>
+      <c r="G94">
+        <v>0.3989427424926757</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.0213095500894262</v>
+        <v>0.09635014082822807</v>
       </c>
       <c r="C95">
-        <v>-0.01986193261371241</v>
+        <v>-0.08259453601166591</v>
       </c>
       <c r="D95">
-        <v>0.1339305550465147</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.009664067837294349</v>
+      </c>
+      <c r="E95">
+        <v>0.09935420947622875</v>
+      </c>
+      <c r="F95">
+        <v>-0.1522854228465526</v>
+      </c>
+      <c r="G95">
+        <v>-0.05312113655278203</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1443588260348299</v>
+        <v>0.1916012590681104</v>
       </c>
       <c r="C98">
-        <v>-0.08508447705646828</v>
+        <v>-0.0451555687497221</v>
       </c>
       <c r="D98">
-        <v>0.1153429543087775</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.01174241926816159</v>
+      </c>
+      <c r="E98">
+        <v>0.1135197822989206</v>
+      </c>
+      <c r="F98">
+        <v>-0.2260563647504499</v>
+      </c>
+      <c r="G98">
+        <v>0.02586878591001478</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.005958981265039053</v>
+        <v>0.009254717915235846</v>
       </c>
       <c r="C101">
-        <v>0.004064142100167854</v>
+        <v>-0.02363688717222224</v>
       </c>
       <c r="D101">
-        <v>0.01711481384377378</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.009336614560358801</v>
+      </c>
+      <c r="E101">
+        <v>0.003186084002857607</v>
+      </c>
+      <c r="F101">
+        <v>0.01723769261209578</v>
+      </c>
+      <c r="G101">
+        <v>-0.1012387119043752</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.0756070646661569</v>
+        <v>0.1169713062857672</v>
       </c>
       <c r="C102">
-        <v>-0.03080812806553494</v>
+        <v>-0.08132193824803192</v>
       </c>
       <c r="D102">
-        <v>0.1303087839354586</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.0006876776155422986</v>
+      </c>
+      <c r="E102">
+        <v>-0.04132544635361105</v>
+      </c>
+      <c r="F102">
+        <v>0.03340344557708069</v>
+      </c>
+      <c r="G102">
+        <v>-0.01377055618985901</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,19 +3060,37 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>-0.4255273499814775</v>
+        <v>0.0214183478582875</v>
       </c>
       <c r="C104">
-        <v>0.8952397343163419</v>
+        <v>0.03106377471947799</v>
       </c>
       <c r="D104">
-        <v>-0.01059913993718115</v>
+        <v>-0.987614619227822</v>
+      </c>
+      <c r="E104">
+        <v>-0.05926486084106301</v>
+      </c>
+      <c r="F104">
+        <v>0.0284267555282081</v>
+      </c>
+      <c r="G104">
+        <v>0.0416791337789457</v>
       </c>
     </row>
   </sheetData>
